--- a/medicine/Enfance/Wolf_Erlbruch/Wolf_Erlbruch.xlsx
+++ b/medicine/Enfance/Wolf_Erlbruch/Wolf_Erlbruch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wolf Erlbruch, né le 30 juin 1948 à Wuppertal et mort le 11 décembre 2022 dans la même ville, est un illustrateur et écrivain d'ouvrage jeunesse allemand.
 Il est lauréat de deux des plus grands prix en littérature jeunesse : le prix Hans Christian Andersen d'illustration en 2006, et le prix commémoratif Astrid-Lindgren en 2017.
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1948, Erlbruch étudie le graphisme à la Folkwang-Schule à Essen. Il travaille comme illustrateur dans des magazines (Stern, Esquire).
-En 1985[1], il commence à travailler pour la jeunesse sur Der Adler, der nicht fliegen wollte de James Aggrey. Le fils d'Erlbruch vient de naître, il voulait pouvoir dire « regarde, papa a fait un livre pour enfants. » Il a depuis illustré de nombreux livres pour enfants.
-Il rencontre le succès en 1990 avec l'album De la petite taupe qui voulait savoir qui lui avait fait sur la tête de Werner Holzwarth, qu'il a illustré[2].
-Il remporte le prix BolognaRagazzi en 1999 et 2004, le prix Hans Christian Andersen Illustration en 2006, et le prix commémoratif Astrid-Lindgren en 2017[1].
-Il meurt le 11 décembre 2022, à 74 ans[1],[3].
+En 1985, il commence à travailler pour la jeunesse sur Der Adler, der nicht fliegen wollte de James Aggrey. Le fils d'Erlbruch vient de naître, il voulait pouvoir dire « regarde, papa a fait un livre pour enfants. » Il a depuis illustré de nombreux livres pour enfants.
+Il rencontre le succès en 1990 avec l'album De la petite taupe qui voulait savoir qui lui avait fait sur la tête de Werner Holzwarth, qu'il a illustré.
+Il remporte le prix BolognaRagazzi en 1999 et 2004, le prix Hans Christian Andersen Illustration en 2006, et le prix commémoratif Astrid-Lindgren en 2017.
+Il meurt le 11 décembre 2022, à 74 ans,.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Caractéristiques de son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Erlbruch parvient à traiter de sujets graves dans ses livres pour enfants, tels que la mort ou le sens de la vie : dans Le Canard, la Mort et la Tulipe un canard devient ami avec la Mort, dans Un paradis pour petit Ours, de Dolf Verroen, qu'il illustre, un ourson essaye de retrouver son grand-père au paradis des ours.
 Certains de ses livres sont inspirés par sa propre vie, tel Léonard, qui tient son titre de son fils de six ans, qui raconte l'histoire d'un garçon qui dépasse sa peur des chiens en devenant un chien lui-même.
@@ -582,8 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Texte et illustrations
-Die fürchterlichen Fünf, 1990.
+          <t>Texte et illustrations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Die fürchterlichen Fünf, 1990.
 Traduction : Les Cinq Affreux, Milan, 1994.
 Das Bärenwunder, 1993
 Traduction : Moi, papa ours ?, Toulouse, Milan jeunesse, 1993, et rééd.
@@ -598,9 +619,43 @@
 Die große Frage, 2004.
 Traduction : La Grande Question, Être, 2003.
 Ente, Tod und Tulpe, 2007.
-Traduction : Le Canard, la Mort et la Tulipe, La Joie de lire, 2007.
-Illustrations
-Der Adler, der nicht fliegen wollte, de James Aggrey
+Traduction : Le Canard, la Mort et la Tulipe, La Joie de lire, 2007.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wolf_Erlbruch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wolf_Erlbruch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Der Adler, der nicht fliegen wollte, de James Aggrey
 Vom kleinen Maulwurf, der wissen wollte, wer ihm auf den Kopf gemacht hat, de Werner Holzwarth, 1990.
 Traduction : De la petite taupe qui voulait savoir qui lui avait fait sur la tête, Milan, 1993.
 Die Abenteuer von Eduard Speck, de John Saxby, 1993.
@@ -631,31 +686,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Wolf_Erlbruch</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Wolf_Erlbruch</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1993 :  Deutscher Jugendliteraturpreis pour Das Bärenwunder (Moi, papa ours ?)
 1994 :  Prix Sorcières catégorie Album, pour De la petite taupe qui voulait savoir qui lui avait fait sur la tête, texte de Werner Holzwarth, qu'il a illustré
@@ -664,17 +721,17 @@
 1999 :  Prix BolognaRagazzi pour Das Hexeneinmal-Eins (Cuisine de sorcière), texte de Johann Wolfgang von Goethe, qu'il a illustré
 2000 :  Troisdorfer Bilderbuchpreis pour Das Neue ABC-Buch (Le nouvel abécédaire), texte de Karl Philipp Moritz, qu'il a illustré
 2001 :  Mention Prix BolognaRagazzi pour Das Neue ABC-Buch (Le nouvel abécédaire), texte de Karl Philipp Moritz, qu'il a illustré
-2002 : (international) « Honour List »[4] de l' IBBY pour Nachts (Allons voir la nuit)
+2002 : (international) « Honour List » de l' IBBY pour Nachts (Allons voir la nuit)
 2003 :  Prix Gutemberg
 2003 :  Deutscher Jugendliteraturpreis, prix spécial pour les illustrations
 2003 :  Prix Culturel Eduard-von-der-Heydt-Kulturpreis
 2004 :  Prix BolognaRagazzi pour La Grande question
 2005 :  Prix Sorcières catégorie Album, pour La Grande Question
-2006 : (international) « Honour List »[5] de l' IBBY pour La Grande Question
+2006 : (international) « Honour List » de l' IBBY pour La Grande Question
 2006 :  Prix Hans Christian Andersen illustration
 2014 :
  Prix e.o.plauen pour l'ensemble de son œuvre
- Mention Prix BolognaRagazzi[6] pour Die Katzen von Kopenhagen, de James Joyce, qu'il a illustré
+ Mention Prix BolognaRagazzi pour Die Katzen von Kopenhagen, de James Joyce, qu'il a illustré
 2017 :  Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
